--- a/Tech.xlsx
+++ b/Tech.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kipp\Documents\GitHub\Financial-Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9395A2BC-EE20-497D-B1BD-F389656206A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F458FF9A-BD1A-406E-AB8C-466EE6402FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5610" yWindow="1365" windowWidth="19515" windowHeight="14340" xr2:uid="{52CFC7FC-E251-442A-88F4-8C44F2B61681}"/>
+    <workbookView xWindow="8025" yWindow="1095" windowWidth="19515" windowHeight="14340" xr2:uid="{52CFC7FC-E251-442A-88F4-8C44F2B61681}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>Company</t>
   </si>
@@ -110,9 +110,6 @@
     <t>Cloudflare</t>
   </si>
   <si>
-    <t>AWS</t>
-  </si>
-  <si>
     <t>CrowdStrike</t>
   </si>
   <si>
@@ -275,16 +272,43 @@
     <t>HUBS</t>
   </si>
   <si>
-    <t>7751.T</t>
-  </si>
-  <si>
     <t>1810.HK</t>
+  </si>
+  <si>
+    <t>Take-Two Interactive</t>
+  </si>
+  <si>
+    <t>TTWO</t>
+  </si>
+  <si>
+    <t>Tencent</t>
+  </si>
+  <si>
+    <t>0700.HK</t>
+  </si>
+  <si>
+    <t>CAJPY</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>GOOGL</t>
+  </si>
+  <si>
+    <t>International Business Machines</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -295,17 +319,18 @@
     <font>
       <u/>
       <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="186"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -327,13 +352,28 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -669,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B68AE69-9D5A-40AD-840D-E88CA5DA8AFC}">
-  <dimension ref="A1:S37"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -681,69 +721,70 @@
     <col min="2" max="2" width="3.5703125" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="2"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" style="3"/>
+    <col min="9" max="9" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+    <row r="2" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" s="1">
+      <c r="O2" s="5">
         <v>2022</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="5">
         <f>+O2+1</f>
         <v>2023</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2" s="5">
         <f t="shared" ref="Q2:S2" si="0">+P2+1</f>
         <v>2024</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="5">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="5">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
@@ -757,24 +798,24 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="2">
+        <v>45</v>
+      </c>
+      <c r="E3" s="1">
         <v>229.03</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f t="shared" ref="A4:A37" si="1">+A3+1</f>
+        <f t="shared" ref="A4:A40" si="1">+A3+1</f>
         <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="2">
+        <v>46</v>
+      </c>
+      <c r="E4" s="1">
         <v>412.7</v>
       </c>
     </row>
@@ -784,12 +825,12 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="2">
+        <v>47</v>
+      </c>
+      <c r="E5" s="1">
         <v>238.9</v>
       </c>
     </row>
@@ -802,9 +843,9 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="2">
+        <v>48</v>
+      </c>
+      <c r="E6" s="1">
         <v>118.36</v>
       </c>
     </row>
@@ -817,9 +858,9 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="2">
+        <v>49</v>
+      </c>
+      <c r="E7" s="1">
         <v>389.01</v>
       </c>
     </row>
@@ -828,452 +869,510 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>5</v>
+      <c r="C8" t="s">
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="2">
-        <v>219.51</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9">
-        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>6</v>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="2">
-        <v>169.25</v>
+        <v>50</v>
+      </c>
+      <c r="E9" s="1">
+        <v>219.51</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10">
-        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="2">
-        <v>340.94</v>
+        <v>51</v>
+      </c>
+      <c r="E10" s="1">
+        <v>169.25</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11">
-        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="2">
-        <v>61.25</v>
+        <v>52</v>
+      </c>
+      <c r="E11" s="1">
+        <v>340.94</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12">
-        <f t="shared" si="1"/>
+        <f>+A11+1</f>
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="2">
-        <v>261.89</v>
+        <v>53</v>
+      </c>
+      <c r="E12" s="1">
+        <v>61.25</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A13:A40" si="2">+A12+1</f>
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="2">
-        <v>385.21</v>
+        <v>9</v>
+      </c>
+      <c r="E13" s="1">
+        <v>261.89</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1026.4000000000001</v>
+        <v>54</v>
+      </c>
+      <c r="E14" s="1">
+        <v>385.21</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="2">
-        <v>440.26</v>
+        <v>55</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1026.4000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="1">
+        <v>440.26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
         <v>13</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="1">
+        <v>98.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="2">
-        <v>98.4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <f t="shared" si="1"/>
+      <c r="E18" s="1">
+        <v>171.53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="1">
+        <v>115.59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="1">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="2">
-        <v>171.53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <f t="shared" si="1"/>
+      <c r="D21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="2">
-        <v>115.59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <f t="shared" si="1"/>
+      <c r="D22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="1">
+        <v>67.63</v>
+      </c>
+      <c r="F22" s="3">
+        <v>139671</v>
+      </c>
+      <c r="G22" s="3">
+        <v>-1370</v>
+      </c>
+      <c r="H22" s="3">
+        <v>141041</v>
+      </c>
+      <c r="I22" s="10">
+        <v>45693</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
         <v>18</v>
       </c>
-      <c r="C19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="2">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <f t="shared" si="1"/>
+      <c r="D23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="1">
+        <v>112.84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="2">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <f t="shared" si="1"/>
+      <c r="D24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="1">
+        <v>80.83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
         <v>20</v>
       </c>
-      <c r="C21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="D25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="1">
+        <v>90.79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="1">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="1">
+        <v>19.489999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="1">
+        <v>138.69999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="1">
+        <v>399.96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="2">
-        <v>67.63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="C22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="2">
-        <v>112.84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="C23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" s="2">
-        <v>80.83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="C24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="2">
-        <v>90.79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" s="2">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="2">
-        <v>19.489999999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <f t="shared" si="1"/>
+      <c r="E30" s="1">
+        <v>21.99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
         <v>26</v>
       </c>
-      <c r="C27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="2">
-        <v>138.69999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <f t="shared" si="1"/>
+      <c r="D31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="8">
+        <v>39.65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
         <v>27</v>
       </c>
-      <c r="C28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="D32" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="2">
-        <v>399.96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>64</v>
-      </c>
-      <c r="E29" s="2">
-        <v>21.99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="C31" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" t="s">
-        <v>74</v>
-      </c>
-      <c r="E31" s="2">
+      <c r="E32" s="1">
         <v>473.37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="C32" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" t="s">
-        <v>75</v>
-      </c>
-      <c r="E32" s="2">
-        <v>259.77</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D33" t="s">
-        <v>76</v>
-      </c>
-      <c r="E33" s="2">
-        <v>184</v>
+        <v>74</v>
+      </c>
+      <c r="E33" s="1">
+        <v>259.77</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D34" t="s">
-        <v>65</v>
-      </c>
-      <c r="E34" s="2">
-        <v>100.95</v>
+        <v>75</v>
+      </c>
+      <c r="E34" s="1">
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D35" t="s">
-        <v>77</v>
-      </c>
-      <c r="E35" s="2">
-        <v>90.15</v>
+        <v>64</v>
+      </c>
+      <c r="E35" s="1">
+        <v>100.95</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D36" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="E36" s="1">
+        <v>90.15</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D37" t="s">
-        <v>78</v>
-      </c>
-      <c r="E37" s="2">
+        <v>83</v>
+      </c>
+      <c r="E37" s="9">
+        <v>32.590000000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" s="1">
         <v>764.92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="1">
+        <v>183.44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" s="8">
+        <v>417.8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C8" r:id="rId1" xr:uid="{171E0AAA-EC81-48B4-843F-8BEBD78B7A2A}"/>
-    <hyperlink ref="C17" r:id="rId2" xr:uid="{5C81D5C6-7D0C-45AC-ADE1-A9BEBE07AF37}"/>
-    <hyperlink ref="C18" r:id="rId3" xr:uid="{F0EAF027-CCD1-4489-A1B1-C4D3BB490382}"/>
-    <hyperlink ref="C20" r:id="rId4" xr:uid="{62BCF379-FF34-439A-9D10-495861D9C69D}"/>
-    <hyperlink ref="C26" r:id="rId5" xr:uid="{59D132B7-B67F-4DF8-87E5-D249658AF660}"/>
+    <hyperlink ref="C9" r:id="rId1" xr:uid="{171E0AAA-EC81-48B4-843F-8BEBD78B7A2A}"/>
+    <hyperlink ref="C18" r:id="rId2" xr:uid="{5C81D5C6-7D0C-45AC-ADE1-A9BEBE07AF37}"/>
+    <hyperlink ref="C19" r:id="rId3" xr:uid="{F0EAF027-CCD1-4489-A1B1-C4D3BB490382}"/>
+    <hyperlink ref="C21" r:id="rId4" xr:uid="{62BCF379-FF34-439A-9D10-495861D9C69D}"/>
+    <hyperlink ref="C27" r:id="rId5" xr:uid="{59D132B7-B67F-4DF8-87E5-D249658AF660}"/>
+    <hyperlink ref="C22" r:id="rId6" xr:uid="{7B68087E-F352-447F-9DCB-B2A5FC7D374D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tech.xlsx
+++ b/Tech.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kipp\Documents\GitHub\Financial-Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F458FF9A-BD1A-406E-AB8C-466EE6402FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41E73EB-D5F4-4A3E-9F2E-0B933A854011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8025" yWindow="1095" windowWidth="19515" windowHeight="14340" xr2:uid="{52CFC7FC-E251-442A-88F4-8C44F2B61681}"/>
+    <workbookView xWindow="105" yWindow="1170" windowWidth="21495" windowHeight="14340" xr2:uid="{52CFC7FC-E251-442A-88F4-8C44F2B61681}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="91">
   <si>
     <t>Company</t>
   </si>
@@ -300,6 +300,15 @@
   </si>
   <si>
     <t>International Business Machines</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>AppLovin</t>
+  </si>
+  <si>
+    <t>APP</t>
   </si>
 </sst>
 </file>
@@ -709,16 +718,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B68AE69-9D5A-40AD-840D-E88CA5DA8AFC}">
-  <dimension ref="A1:S40"/>
+  <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -806,7 +815,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f t="shared" ref="A4:A40" si="1">+A3+1</f>
+        <f t="shared" ref="A4:A8" si="1">+A3+1</f>
         <v>3</v>
       </c>
       <c r="C4" t="s">
@@ -875,10 +884,16 @@
       <c r="D8" t="s">
         <v>86</v>
       </c>
+      <c r="E8" s="1">
+        <v>186.56</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>88</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>5</v>
@@ -935,7 +950,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13">
-        <f t="shared" ref="A13:A40" si="2">+A12+1</f>
+        <f t="shared" ref="A13:A41" si="2">+A12+1</f>
         <v>12</v>
       </c>
       <c r="C13" t="s">
@@ -1013,6 +1028,9 @@
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
+      <c r="B18" t="s">
+        <v>88</v>
+      </c>
       <c r="C18" s="2" t="s">
         <v>59</v>
       </c>
@@ -1028,6 +1046,9 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
+      <c r="B19" t="s">
+        <v>88</v>
+      </c>
       <c r="C19" s="2" t="s">
         <v>14</v>
       </c>
@@ -1058,6 +1079,9 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
+      <c r="B21" t="s">
+        <v>88</v>
+      </c>
       <c r="C21" s="2" t="s">
         <v>16</v>
       </c>
@@ -1073,6 +1097,9 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
       <c r="C22" s="2" t="s">
         <v>17</v>
       </c>
@@ -1160,6 +1187,9 @@
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
+      <c r="B27" t="s">
+        <v>88</v>
+      </c>
       <c r="C27" s="2" t="s">
         <v>22</v>
       </c>
@@ -1340,7 +1370,7 @@
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="2" t="s">
         <v>79</v>
       </c>
       <c r="D39" t="s">
@@ -1363,6 +1393,21 @@
       </c>
       <c r="E40" s="8">
         <v>417.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" s="1">
+        <v>479.99</v>
       </c>
     </row>
   </sheetData>
@@ -1373,6 +1418,7 @@
     <hyperlink ref="C21" r:id="rId4" xr:uid="{62BCF379-FF34-439A-9D10-495861D9C69D}"/>
     <hyperlink ref="C27" r:id="rId5" xr:uid="{59D132B7-B67F-4DF8-87E5-D249658AF660}"/>
     <hyperlink ref="C22" r:id="rId6" xr:uid="{7B68087E-F352-447F-9DCB-B2A5FC7D374D}"/>
+    <hyperlink ref="C39" r:id="rId7" xr:uid="{3587CD46-DD7C-49EE-B927-012E63E3CDAC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tech.xlsx
+++ b/Tech.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kipp\Documents\GitHub\Financial-Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41E73EB-D5F4-4A3E-9F2E-0B933A854011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DE3289-D306-43E7-A33A-29607AE9B08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="1170" windowWidth="21495" windowHeight="14340" xr2:uid="{52CFC7FC-E251-442A-88F4-8C44F2B61681}"/>
+    <workbookView xWindow="2265" yWindow="1200" windowWidth="21495" windowHeight="14340" xr2:uid="{52CFC7FC-E251-442A-88F4-8C44F2B61681}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -720,7 +720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B68AE69-9D5A-40AD-840D-E88CA5DA8AFC}">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
